--- a/maps/_baselines.xlsx
+++ b/maps/_baselines.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/baseline/maps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5F6FF37-BB21-A74F-BB98-86F844BE949B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9031673-5B70-8942-AF91-14273C03CE78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="27260" windowHeight="16940" xr2:uid="{3377375B-0D7E-DD49-8BAD-15CE977E3DAD}"/>
+    <workbookView xWindow="1420" yWindow="500" windowWidth="27260" windowHeight="16940" xr2:uid="{3377375B-0D7E-DD49-8BAD-15CE977E3DAD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>XX</t>
   </si>
@@ -51,6 +51,15 @@
   </si>
   <si>
     <t>VA</t>
+  </si>
+  <si>
+    <t>GA</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>*</t>
   </si>
 </sst>
 </file>
@@ -94,11 +103,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -413,48 +428,69 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{795FC15B-1E26-884A-BA83-E8F99A74859E}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="2"/>
+    <col min="2" max="2" width="3.5" style="5" customWidth="1"/>
+    <col min="3" max="3" width="7.5" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2">
+      <c r="C2" s="2">
         <v>3.8699999999999998E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2">
         <v>3.9199999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1.1299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1.54E-2</v>
       </c>
     </row>
   </sheetData>
